--- a/dati.xlsx
+++ b/dati.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\italo\Desktop\force_evaluator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\italo\Desktop\StrengthMeter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="A7:G10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,126 +399,38 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45517</v>
+        <v>45503</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F2">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B3">
-        <f>B2+15</f>
-        <v>95</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:G3" si="0">C2+15</f>
-        <v>55</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>45651</v>
-      </c>
-      <c r="B4">
-        <v>112</v>
-      </c>
-      <c r="C4">
-        <v>60</v>
-      </c>
-      <c r="D4">
-        <v>70</v>
-      </c>
-      <c r="E4">
-        <v>45</v>
-      </c>
-      <c r="F4">
-        <v>45</v>
-      </c>
-      <c r="G4">
-        <v>32</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <f>A4+1</f>
-        <v>45652</v>
-      </c>
-      <c r="B5">
-        <v>112</v>
-      </c>
-      <c r="C5">
-        <v>60</v>
-      </c>
-      <c r="D5">
-        <v>70</v>
-      </c>
-      <c r="E5">
-        <v>45</v>
-      </c>
-      <c r="F5">
-        <v>45</v>
-      </c>
-      <c r="G5">
-        <v>32</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <f>A5+1</f>
-        <v>45653</v>
-      </c>
-      <c r="B6">
-        <v>112</v>
-      </c>
-      <c r="C6">
-        <v>60</v>
-      </c>
-      <c r="D6">
-        <v>70</v>
-      </c>
-      <c r="E6">
-        <v>45</v>
-      </c>
-      <c r="F6">
-        <v>45</v>
-      </c>
-      <c r="G6">
-        <v>32</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
